--- a/Interface_Design/System_Internal/Client-Server_API_Design.xlsx
+++ b/Interface_Design/System_Internal/Client-Server_API_Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Ice-Cream_Project\Interface_Design\System_Internal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Ice-Cream_Repository\Interface_Design\System_Internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB1012-6F7E-43F5-B157-47D354339EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C8849-9318-4689-AC70-336497F06539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19270" yWindow="120" windowWidth="18960" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19300" yWindow="60" windowWidth="19060" windowHeight="20670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Client-Server API Design</t>
   </si>
@@ -199,22 +199,31 @@
     <t>Format</t>
   </si>
   <si>
-    <t>All outgoing messages are the outer-most brackets of icecream.json with a subset of the products. [ means array, * means between zero inclusive and infinity (1*3 means between 1 and 3 inclusive, 2*2 means exactly 2), &lt; means name</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>{"products": [*&lt;product&gt;]}</t>
-  </si>
-  <si>
-    <t>Object with array of zero or more products</t>
-  </si>
-  <si>
     <t>{&lt;ingredient list&gt;}</t>
   </si>
   <si>
     <t>Object with ingredient list</t>
+  </si>
+  <si>
+    <t>Outgoing Message Name</t>
+  </si>
+  <si>
+    <t>info-and-found-products</t>
+  </si>
+  <si>
+    <t>Object with info and array of zero or more products</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>{"info": "&lt;info&gt;", "products": [*&lt;product&gt;]}</t>
+  </si>
+  <si>
+    <t>All outgoing messages are the outer-most brackets of icecream.json with info and a subset of the products. [ means array, * means between zero inclusive and infinity (1*3 means between 1 and 3 inclusive, 2*2 means exactly 2), &lt; means name</t>
   </si>
 </sst>
 </file>
@@ -275,10 +284,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,35 +569,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="99.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -598,213 +611,226 @@
         <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
         <v>24</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
         <v>31</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
         <v>36</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
         <v>39</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F27" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
         <v>40</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F28" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
         <v>42</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
         <v>43</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>

--- a/Interface_Design/System_Internal/Client-Server_API_Design.xlsx
+++ b/Interface_Design/System_Internal/Client-Server_API_Design.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Ice-Cream_Repository\Interface_Design\System_Internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9AAA9D-3172-4881-A757-206C11A8B82F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE483F-695D-42E1-AE3C-3A6022849338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19330" yWindow="150" windowWidth="18920" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19410" yWindow="0" windowWidth="18900" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Server" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
-  <si>
-    <t>Client-Server API Design</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Created: 12/28/20 by Tom Lever</t>
   </si>
@@ -57,9 +54,6 @@
     <t>sourcing value</t>
   </si>
   <si>
-    <t>ingredient list</t>
-  </si>
-  <si>
     <t>allergen</t>
   </si>
   <si>
@@ -75,13 +69,7 @@
     <t>"product ID": "4*4&lt;digit&gt;"</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
     <t>/search-by-ingredients</t>
-  </si>
-  <si>
-    <t>info-or-found-products</t>
   </si>
   <si>
     <t>A server endpoint receives incoming messages from clients directed to that endpoint and creates outgoing messages of a certain type.
@@ -139,14 +127,123 @@
     <t>Incoming-Message Name</t>
   </si>
   <si>
-    <t>incoming-message</t>
-  </si>
-  <si>
-    <t>Outgoing-Message Name</t>
+    <t>ingredient without comma</t>
+  </si>
+  <si>
+    <t>ingredient with comma</t>
+  </si>
+  <si>
+    <t>%22&lt;ingredient&gt;%22%2C%20</t>
+  </si>
+  <si>
+    <t>Object, received via a POST request, with a body in format "x-www-form-urlencoded" including key "search-parameters", character "=", and value &lt;ingredients list&gt;</t>
+  </si>
+  <si>
+    <t>%7B%22ingredients%22%3A%20%5B*&lt;ingredient with comma&gt;&lt;ingredient without comma&gt;%5D%7D</t>
+  </si>
+  <si>
+    <t>Body: search-parameters=&lt;ingredients list&gt;</t>
+  </si>
+  <si>
+    <t>{&lt;name&gt;, &lt;image_closed&gt;, &lt;image_open&gt;, &lt;description&gt;, &lt;story&gt;, &lt;sourcing_values&gt;, &lt;ingredients&gt;, &lt;allergy_info&gt;, &lt;dietary_certifications&gt;, &lt;productId&gt;}</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image_closed</t>
+  </si>
+  <si>
+    <t>image_open</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>sourcing_values</t>
+  </si>
+  <si>
+    <t>allergy_info</t>
+  </si>
+  <si>
+    <t>dietary_certifications</t>
+  </si>
+  <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>product with comma</t>
+  </si>
+  <si>
+    <t>{&lt;name&gt;, &lt;image_closed&gt;, &lt;image_open&gt;, &lt;description&gt;, &lt;story&gt;, &lt;sourcing_values&gt;, &lt;ingredients&gt;, &lt;allergy_info&gt;, &lt;dietary_certifications&gt;, &lt;productId&gt;},</t>
+  </si>
+  <si>
+    <t>product without comma</t>
+  </si>
+  <si>
+    <t>%22&lt;ingredient&gt;%22</t>
+  </si>
+  <si>
+    <t>"name": &lt;catchy name&gt;,</t>
+  </si>
+  <si>
+    <t>"image_closed": &lt;path to image file&gt;,</t>
+  </si>
+  <si>
+    <t>"image_open": &lt;path to image file&gt;,</t>
+  </si>
+  <si>
+    <t>"description": &lt;phrase to get customers salivating&gt;,</t>
+  </si>
+  <si>
+    <t>"story": &lt;sales-pitch&gt;,</t>
+  </si>
+  <si>
+    <t>"sourcing_values": [*&lt;sourcing value&gt;],</t>
+  </si>
+  <si>
+    <t>"allergens": [*&lt;allergen&gt;],</t>
+  </si>
+  <si>
+    <t>"dietary_certifications": [*&lt;dietary certification&gt;],</t>
+  </si>
+  <si>
+    <t>All outgoing messages are the outer-most brackets of icecream.json with info and a subset of the products.
+[] means array, * means between zero inclusive and infinity (1*3 means between 1 and 3 inclusive, 2*2 means exactly 2), &lt;&gt; means object.</t>
+  </si>
+  <si>
+    <t>Client-Server API Design (Server Perspective)</t>
+  </si>
+  <si>
+    <t>Matching products</t>
+  </si>
+  <si>
+    <t>Byte array representing {"products": [*&lt;product with comma&gt;&lt;product without comma&gt;]}</t>
+  </si>
+  <si>
+    <t>{"products": [*&lt;product with comma&gt;&lt;product without comma&gt;]}</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Byte array representing {"status": &lt;status&gt;}</t>
+  </si>
+  <si>
+    <t>{"status": "status"}</t>
+  </si>
+  <si>
+    <t>Outgoing Messages</t>
+  </si>
+  <si>
+    <t>Outgoing Message 1 Name</t>
   </si>
   <si>
     <r>
-      <t>Outgoing-Message Definition</t>
+      <t>Outgoing Message 2 Definition</t>
     </r>
     <r>
       <rPr>
@@ -161,108 +258,51 @@
     </r>
   </si>
   <si>
-    <t>Outgoing-Message Format</t>
-  </si>
-  <si>
-    <t>ingredient without comma</t>
-  </si>
-  <si>
-    <t>ingredient with comma</t>
-  </si>
-  <si>
-    <t>%22&lt;ingredient&gt;%22%2C%20</t>
-  </si>
-  <si>
-    <t>Object, received via a POST request, with a body in format "x-www-form-urlencoded" including key "search-parameters", character "=", and value &lt;ingredients list&gt;</t>
-  </si>
-  <si>
-    <t>%7B%22ingredients%22%3A%20%5B*&lt;ingredient with comma&gt;&lt;ingredient without comma&gt;%5D%7D</t>
-  </si>
-  <si>
-    <t>Body: search-parameters=&lt;ingredients list&gt;</t>
-  </si>
-  <si>
-    <t>{&lt;name&gt;, &lt;image_closed&gt;, &lt;image_open&gt;, &lt;description&gt;, &lt;story&gt;, &lt;sourcing_values&gt;, &lt;ingredients&gt;, &lt;allergy_info&gt;, &lt;dietary_certifications&gt;, &lt;productId&gt;}</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>image_closed</t>
-  </si>
-  <si>
-    <t>image_open</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>sourcing_values</t>
-  </si>
-  <si>
-    <t>allergy_info</t>
-  </si>
-  <si>
-    <t>dietary_certifications</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>product with comma</t>
-  </si>
-  <si>
-    <t>{&lt;name&gt;, &lt;image_closed&gt;, &lt;image_open&gt;, &lt;description&gt;, &lt;story&gt;, &lt;sourcing_values&gt;, &lt;ingredients&gt;, &lt;allergy_info&gt;, &lt;dietary_certifications&gt;, &lt;productId&gt;},</t>
-  </si>
-  <si>
-    <t>product without comma</t>
-  </si>
-  <si>
-    <t>{"info": "&lt;info&gt;"} or {"products": [*&lt;product with comma&gt;&lt;product without comma&gt;]}</t>
-  </si>
-  <si>
-    <t>Byte array representing {"info": &lt;info&gt;} or {"products": [*&lt;product with comma&gt;&lt;product without comma&gt;]}</t>
-  </si>
-  <si>
-    <t>%22&lt;ingredient&gt;%22</t>
-  </si>
-  <si>
-    <t>"name": &lt;catchy name&gt;,</t>
-  </si>
-  <si>
-    <t>"image_closed": &lt;path to image file&gt;,</t>
-  </si>
-  <si>
-    <t>"image_open": &lt;path to image file&gt;,</t>
-  </si>
-  <si>
-    <t>"description": &lt;phrase to get customers salivating&gt;,</t>
-  </si>
-  <si>
-    <t>"story": &lt;sales-pitch&gt;,</t>
-  </si>
-  <si>
-    <t>"sourcing_values": [*&lt;sourcing value&gt;],</t>
-  </si>
-  <si>
-    <t>"allergens": [*&lt;allergen&gt;],</t>
-  </si>
-  <si>
-    <t>"dietary_certifications": [*&lt;dietary certification&gt;],</t>
-  </si>
-  <si>
-    <t>All outgoing messages are the outer-most brackets of icecream.json with info and a subset of the products.
-[] means array, * means between zero inclusive and infinity (1*3 means between 1 and 3 inclusive, 2*2 means exactly 2), &lt;&gt; means object.</t>
+    <t>Outgoing Message 1 Format</t>
+  </si>
+  <si>
+    <r>
+      <t>Outgoing Message 1 Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Incoming Message</t>
+  </si>
+  <si>
+    <t>Outgoing Message 2 Name</t>
+  </si>
+  <si>
+    <t>Outgoing Message 2 Format</t>
+  </si>
+  <si>
+    <t>Search parameters</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>ingredients list</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +334,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,314 +652,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="122" customWidth="1"/>
     <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="99.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>3</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
+      <c r="B55" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
